--- a/data/trans_orig/P42B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Clase-trans_orig.xlsx
@@ -687,19 +687,19 @@
         <v>65519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57049</v>
+        <v>57226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71890</v>
+        <v>72532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7916197148756129</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6892814935797461</v>
+        <v>0.6914155350856295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8685906733488167</v>
+        <v>0.8763556848527957</v>
       </c>
     </row>
     <row r="8">
@@ -716,19 +716,19 @@
         <v>4986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1679</v>
+        <v>1057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12596</v>
+        <v>11493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06023987574652068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02028948583860837</v>
+        <v>0.0127669710265546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1521893306935513</v>
+        <v>0.1388613463730093</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>12261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7099</v>
+        <v>6766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19764</v>
+        <v>19776</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1481404093778665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08577091300902923</v>
+        <v>0.08174594805775266</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2387952181921565</v>
+        <v>0.2389393463278909</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6456</v>
+        <v>5667</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01354812338017359</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07599314947918756</v>
+        <v>0.06671036458439591</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7088</v>
+        <v>6735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02358451633759823</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08344113419269705</v>
+        <v>0.07927811029681066</v>
       </c>
     </row>
     <row r="14">
@@ -886,19 +886,19 @@
         <v>69014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60509</v>
+        <v>60548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75345</v>
+        <v>75396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8124127893196539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7122997691905653</v>
+        <v>0.7127538780287512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8869406941886528</v>
+        <v>0.8875406648984127</v>
       </c>
     </row>
     <row r="15">
@@ -915,19 +915,19 @@
         <v>3757</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10506</v>
+        <v>10723</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04422132540389335</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01107230715864409</v>
+        <v>0.01094800910118572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1236731072696959</v>
+        <v>0.1262302808334913</v>
       </c>
     </row>
     <row r="16">
@@ -944,19 +944,19 @@
         <v>9024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3966</v>
+        <v>4718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14851</v>
+        <v>16550</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.106233245558681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04668204745396744</v>
+        <v>0.05553668297881753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1748248221881734</v>
+        <v>0.1948243876921155</v>
       </c>
     </row>
     <row r="17">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6221</v>
+        <v>7030</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06382706301932087</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.196428028654278</v>
+        <v>0.221989338022149</v>
       </c>
     </row>
     <row r="20">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6285</v>
+        <v>5778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05723963934750923</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1984507149111896</v>
+        <v>0.1824339250028989</v>
       </c>
     </row>
     <row r="21">
@@ -1085,19 +1085,19 @@
         <v>21745</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16341</v>
+        <v>16299</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26618</v>
+        <v>26722</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6866012990486521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5159824147538452</v>
+        <v>0.5146636823909444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8404707314141069</v>
+        <v>0.8437639121344388</v>
       </c>
     </row>
     <row r="22">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4369</v>
+        <v>5601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03268302142052591</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1379674981197066</v>
+        <v>0.1768696339286774</v>
       </c>
     </row>
     <row r="23">
@@ -1143,19 +1143,19 @@
         <v>5056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1785</v>
+        <v>1945</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9644</v>
+        <v>10379</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1596489771639919</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0563525363811636</v>
+        <v>0.06142764540769444</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3045241778379965</v>
+        <v>0.3277175411158539</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4947</v>
+        <v>4008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006421616550490786</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03256057603375683</v>
+        <v>0.026383441493181</v>
       </c>
     </row>
     <row r="26">
@@ -1234,19 +1234,19 @@
         <v>3965</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10740</v>
+        <v>10093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02609726558193514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006502835884697534</v>
+        <v>0.006416539705590581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07069184550055001</v>
+        <v>0.06643220145384138</v>
       </c>
     </row>
     <row r="27">
@@ -1263,19 +1263,19 @@
         <v>5932</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2622</v>
+        <v>2473</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12384</v>
+        <v>12412</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03904495418983213</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01725654697542429</v>
+        <v>0.01627991221659043</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08151105373117411</v>
+        <v>0.08169392701731742</v>
       </c>
     </row>
     <row r="28">
@@ -1292,19 +1292,19 @@
         <v>104018</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91919</v>
+        <v>92954</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>113864</v>
+        <v>114848</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6846388207339567</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6050080056090453</v>
+        <v>0.6118192836682212</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.749445796364227</v>
+        <v>0.7559229149280119</v>
       </c>
     </row>
     <row r="29">
@@ -1321,19 +1321,19 @@
         <v>5890</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2101</v>
+        <v>2088</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11391</v>
+        <v>12237</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03876889756891339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01382998393061004</v>
+        <v>0.01374594053603333</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07497745517610298</v>
+        <v>0.08054076812623993</v>
       </c>
     </row>
     <row r="30">
@@ -1350,19 +1350,19 @@
         <v>31150</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22633</v>
+        <v>22807</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42317</v>
+        <v>42269</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2050284453748719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1489691611682644</v>
+        <v>0.1501159445432166</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2785297334932483</v>
+        <v>0.2782102522772777</v>
       </c>
     </row>
     <row r="31">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6803</v>
+        <v>6901</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01875929178477427</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06016132139812388</v>
+        <v>0.06103202235563078</v>
       </c>
     </row>
     <row r="34">
@@ -1462,19 +1462,19 @@
         <v>8223</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3569</v>
+        <v>3941</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14594</v>
+        <v>15641</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0727216340511246</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03156481538622382</v>
+        <v>0.03484926232499809</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1290666092105317</v>
+        <v>0.1383219761890786</v>
       </c>
     </row>
     <row r="35">
@@ -1491,19 +1491,19 @@
         <v>79252</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>67289</v>
+        <v>68192</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88108</v>
+        <v>87746</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7008717574916444</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5950763749651827</v>
+        <v>0.6030561304574223</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7791839690583382</v>
+        <v>0.7759806504106175</v>
       </c>
     </row>
     <row r="36">
@@ -1520,19 +1520,19 @@
         <v>7873</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3591</v>
+        <v>2657</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16692</v>
+        <v>15121</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06962430223549015</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03175363617370058</v>
+        <v>0.02349451303685259</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1476131738983848</v>
+        <v>0.133727041157395</v>
       </c>
     </row>
     <row r="37">
@@ -1549,19 +1549,19 @@
         <v>15607</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9121</v>
+        <v>8987</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24924</v>
+        <v>24388</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1380230144369666</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08065950555482553</v>
+        <v>0.07947761384456134</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2204183355104365</v>
+        <v>0.2156759832013341</v>
       </c>
     </row>
     <row r="38">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5620</v>
+        <v>6346</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0097178203196543</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02956149786208902</v>
+        <v>0.03338123228068682</v>
       </c>
     </row>
     <row r="40">
@@ -1640,19 +1640,19 @@
         <v>4577</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10067</v>
+        <v>9936</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02407422765988175</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009376631573303439</v>
+        <v>0.009342446211529501</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05294938915431727</v>
+        <v>0.05226396880891377</v>
       </c>
     </row>
     <row r="41">
@@ -1669,19 +1669,19 @@
         <v>12653</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7221</v>
+        <v>7335</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20432</v>
+        <v>20017</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06655055787987071</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03798214832546238</v>
+        <v>0.03858170009282871</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1074715156518588</v>
+        <v>0.1052869062360349</v>
       </c>
     </row>
     <row r="42">
@@ -1698,19 +1698,19 @@
         <v>144765</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>132755</v>
+        <v>131728</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>155840</v>
+        <v>154719</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7614388762346656</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6982703169858832</v>
+        <v>0.6928655448640563</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8196926753641162</v>
+        <v>0.8137986200669985</v>
       </c>
     </row>
     <row r="43">
@@ -1727,19 +1727,19 @@
         <v>7279</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3347</v>
+        <v>2892</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14268</v>
+        <v>14474</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03828694153664916</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01760501729158982</v>
+        <v>0.015209043000378</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07504597340469907</v>
+        <v>0.07613003723759328</v>
       </c>
     </row>
     <row r="44">
@@ -1756,19 +1756,19 @@
         <v>18999</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11965</v>
+        <v>12030</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28080</v>
+        <v>28158</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0999315763692785</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06293477765904934</v>
+        <v>0.06327813016672471</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.147696701577841</v>
+        <v>0.1481071973517178</v>
       </c>
     </row>
     <row r="45">
@@ -1818,19 +1818,19 @@
         <v>2823</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7877</v>
+        <v>7507</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.004313424273206853</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00125095378895103</v>
+        <v>0.001316901309908745</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01203513665132991</v>
+        <v>0.01146883769799683</v>
       </c>
     </row>
     <row r="47">
@@ -1847,19 +1847,19 @@
         <v>13836</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7911</v>
+        <v>7677</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>22841</v>
+        <v>22569</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02113866297867358</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01208703635656748</v>
+        <v>0.01173007034512648</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03489811981071405</v>
+        <v>0.03448182379171579</v>
       </c>
     </row>
     <row r="48">
@@ -1876,19 +1876,19 @@
         <v>30624</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>21131</v>
+        <v>20844</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>42034</v>
+        <v>42885</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04678920067041029</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03228555573927464</v>
+        <v>0.03184599675607359</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0642211514801516</v>
+        <v>0.06552147352254074</v>
       </c>
     </row>
     <row r="49">
@@ -1905,19 +1905,19 @@
         <v>484313</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>462446</v>
+        <v>462618</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>505007</v>
+        <v>505244</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.7399587140533042</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7065489983117857</v>
+        <v>0.7068129384815227</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7715771859387025</v>
+        <v>0.7719382072008186</v>
       </c>
     </row>
     <row r="50">
@@ -1934,19 +1934,19 @@
         <v>30820</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>20797</v>
+        <v>20530</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>45135</v>
+        <v>43487</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.04708793335115519</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03177411724751907</v>
+        <v>0.03136675397059274</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06896007645694004</v>
+        <v>0.0664424958447261</v>
       </c>
     </row>
     <row r="51">
@@ -1963,19 +1963,19 @@
         <v>92098</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>76213</v>
+        <v>75508</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>112739</v>
+        <v>110385</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.14071206467325</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.116442139036623</v>
+        <v>0.1153647474304056</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1722483442965661</v>
+        <v>0.1686526087316564</v>
       </c>
     </row>
     <row r="52">
@@ -2145,19 +2145,19 @@
         <v>2921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8712</v>
+        <v>9522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01022325625951034</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003264363760099365</v>
+        <v>0.003305165362603879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03049573792964005</v>
+        <v>0.03333162173249728</v>
       </c>
     </row>
     <row r="5">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10402</v>
+        <v>9352</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009158679337872785</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03641048901035972</v>
+        <v>0.03273655567656442</v>
       </c>
     </row>
     <row r="6">
@@ -2203,19 +2203,19 @@
         <v>5789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14040</v>
+        <v>13952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02026318107042959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006700406722659352</v>
+        <v>0.006677451486426906</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04914335105361905</v>
+        <v>0.04883841843523615</v>
       </c>
     </row>
     <row r="7">
@@ -2232,19 +2232,19 @@
         <v>216176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>199746</v>
+        <v>199138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228986</v>
+        <v>230218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.756691170477989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6991788504451469</v>
+        <v>0.6970513694093764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8015286475046994</v>
+        <v>0.8058434609267409</v>
       </c>
     </row>
     <row r="8">
@@ -2261,19 +2261,19 @@
         <v>16553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9841</v>
+        <v>10028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27136</v>
+        <v>27513</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05794264999951528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03444759244096624</v>
+        <v>0.03510222477219697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09498409990796267</v>
+        <v>0.09630661038729264</v>
       </c>
     </row>
     <row r="9">
@@ -2290,19 +2290,19 @@
         <v>41630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29891</v>
+        <v>29905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55464</v>
+        <v>55933</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.145721062854683</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1046280491742832</v>
+        <v>0.1046775306930773</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1941436914999532</v>
+        <v>0.1957854811670947</v>
       </c>
     </row>
     <row r="10">
@@ -2352,19 +2352,19 @@
         <v>3892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9104</v>
+        <v>9772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01378306066190965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003475826210876973</v>
+        <v>0.003513206293787638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03224557870559815</v>
+        <v>0.03461142484543105</v>
       </c>
     </row>
     <row r="12">
@@ -2381,19 +2381,19 @@
         <v>2900</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8093</v>
+        <v>7756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01027201188493415</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003202043546031753</v>
+        <v>0.003150787434934223</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0286629164270924</v>
+        <v>0.02747068227166973</v>
       </c>
     </row>
     <row r="13">
@@ -2410,19 +2410,19 @@
         <v>4200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>992</v>
+        <v>1126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9907</v>
+        <v>10525</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01487719290724303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003513886736412228</v>
+        <v>0.003987096491714974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03508741273376806</v>
+        <v>0.03727854071217756</v>
       </c>
     </row>
     <row r="14">
@@ -2439,19 +2439,19 @@
         <v>228208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>214208</v>
+        <v>213532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>239490</v>
+        <v>240162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8082631084378527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7586782684119626</v>
+        <v>0.7562846229431581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8482211587413965</v>
+        <v>0.8506002353960496</v>
       </c>
     </row>
     <row r="15">
@@ -2468,19 +2468,19 @@
         <v>13003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7132</v>
+        <v>6874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21893</v>
+        <v>21829</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04605535027582744</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02525972183510623</v>
+        <v>0.02434740575255843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07753895868023643</v>
+        <v>0.07731411818516512</v>
       </c>
     </row>
     <row r="16">
@@ -2497,19 +2497,19 @@
         <v>30140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20993</v>
+        <v>20914</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42360</v>
+        <v>42839</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1067492758322331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07435162062018451</v>
+        <v>0.07407108586594859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1500301855722428</v>
+        <v>0.1517271120119365</v>
       </c>
     </row>
     <row r="17">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6995</v>
+        <v>6986</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00921783428306938</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03234064188951549</v>
+        <v>0.03229794480722673</v>
       </c>
     </row>
     <row r="19">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4490</v>
+        <v>5409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004478807005382379</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02075977232342826</v>
+        <v>0.02500601839971449</v>
       </c>
     </row>
     <row r="20">
@@ -2620,16 +2620,16 @@
         <v>935</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8723</v>
+        <v>7929</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01371184097050057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004324583021490558</v>
+        <v>0.004324221010991896</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04032774894507349</v>
+        <v>0.03665775737521337</v>
       </c>
     </row>
     <row r="21">
@@ -2646,19 +2646,19 @@
         <v>166222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>151318</v>
+        <v>152325</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178787</v>
+        <v>178398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.768473765686266</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6995670795634389</v>
+        <v>0.7042240016812275</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.826562113442001</v>
+        <v>0.8247651303110451</v>
       </c>
     </row>
     <row r="22">
@@ -2675,19 +2675,19 @@
         <v>9916</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5057</v>
+        <v>4933</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18407</v>
+        <v>18110</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04584335621801706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02337959257825916</v>
+        <v>0.02280783706642504</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0850982953828916</v>
+        <v>0.08372753529548425</v>
       </c>
     </row>
     <row r="23">
@@ -2704,19 +2704,19 @@
         <v>34235</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23995</v>
+        <v>24452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45872</v>
+        <v>46464</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1582743958367646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1109349668010784</v>
+        <v>0.1130458485352946</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.212074570502994</v>
+        <v>0.2148103538141579</v>
       </c>
     </row>
     <row r="24">
@@ -2766,19 +2766,19 @@
         <v>14300</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8152</v>
+        <v>7891</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24307</v>
+        <v>23577</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02327112742124823</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01326550247292835</v>
+        <v>0.0128412611367028</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03955601797142629</v>
+        <v>0.03836696291251016</v>
       </c>
     </row>
     <row r="26">
@@ -2798,16 +2798,16 @@
         <v>944</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9603</v>
+        <v>9319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006016968343893825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001535427552856999</v>
+        <v>0.0015365877731413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01562666961850516</v>
+        <v>0.01516482430959657</v>
       </c>
     </row>
     <row r="27">
@@ -2824,19 +2824,19 @@
         <v>10392</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5130</v>
+        <v>5082</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19054</v>
+        <v>18523</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01691051445465565</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008348910735647965</v>
+        <v>0.008270454319794437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03100727829622262</v>
+        <v>0.03014264546811067</v>
       </c>
     </row>
     <row r="28">
@@ -2853,19 +2853,19 @@
         <v>439919</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>414844</v>
+        <v>416565</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>462168</v>
+        <v>462753</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7158886767805464</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6750850103847397</v>
+        <v>0.6778844245680712</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7520962599600616</v>
+        <v>0.7530481571442835</v>
       </c>
     </row>
     <row r="29">
@@ -2882,19 +2882,19 @@
         <v>45514</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33725</v>
+        <v>32474</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61317</v>
+        <v>59931</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07406592478851066</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05488179927796535</v>
+        <v>0.0528449907369665</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09978285378987874</v>
+        <v>0.09752767996342575</v>
       </c>
     </row>
     <row r="30">
@@ -2911,19 +2911,19 @@
         <v>100685</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>82414</v>
+        <v>83344</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>118381</v>
+        <v>119699</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1638467882111453</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1341147747575319</v>
+        <v>0.13562814628804</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1926442409285424</v>
+        <v>0.1947890584139205</v>
       </c>
     </row>
     <row r="31">
@@ -2973,19 +2973,19 @@
         <v>10239</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4969</v>
+        <v>4974</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18282</v>
+        <v>19331</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01715157525530355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008324675726183048</v>
+        <v>0.008332790731157239</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03062538959847821</v>
+        <v>0.03238248304587032</v>
       </c>
     </row>
     <row r="33">
@@ -3002,19 +3002,19 @@
         <v>8118</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3424</v>
+        <v>3890</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>14533</v>
+        <v>15343</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01359972118659096</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005735982202193044</v>
+        <v>0.006516709750466163</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02434524004797693</v>
+        <v>0.02570257617293095</v>
       </c>
     </row>
     <row r="34">
@@ -3031,19 +3031,19 @@
         <v>7130</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3028</v>
+        <v>3021</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15939</v>
+        <v>15074</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01194466065013081</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005072710694286985</v>
+        <v>0.005061073846229338</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02670006677070168</v>
+        <v>0.02525252869309413</v>
       </c>
     </row>
     <row r="35">
@@ -3060,19 +3060,19 @@
         <v>389064</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>363821</v>
+        <v>364036</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>412533</v>
+        <v>413691</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6517564798743899</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6094700844054765</v>
+        <v>0.609829559968483</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6910720465035182</v>
+        <v>0.6930116750085156</v>
       </c>
     </row>
     <row r="36">
@@ -3089,19 +3089,19 @@
         <v>39632</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27275</v>
+        <v>27160</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53797</v>
+        <v>53090</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06639048037387407</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0456908399520943</v>
+        <v>0.04549744431052659</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09012013377113716</v>
+        <v>0.08893547046864499</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>142764</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>123046</v>
+        <v>122355</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>166217</v>
+        <v>164897</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2391570826597107</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2061260416997998</v>
+        <v>0.2049679717228778</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2784455882138344</v>
+        <v>0.2762334010316623</v>
       </c>
     </row>
     <row r="38">
@@ -3180,19 +3180,19 @@
         <v>10385</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>5031</v>
+        <v>5193</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>18808</v>
+        <v>18437</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01402854451526946</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.006796611735881806</v>
+        <v>0.007014181384396069</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02540650821218523</v>
+        <v>0.02490500352105225</v>
       </c>
     </row>
     <row r="40">
@@ -3209,19 +3209,19 @@
         <v>6794</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2317</v>
+        <v>3340</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14701</v>
+        <v>15726</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00917777299915027</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003129894298444692</v>
+        <v>0.004511911192673248</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01985821844061765</v>
+        <v>0.02124295479682542</v>
       </c>
     </row>
     <row r="41">
@@ -3238,19 +3238,19 @@
         <v>12492</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6379</v>
+        <v>7092</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20764</v>
+        <v>21400</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01687407616069327</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008616685793632266</v>
+        <v>0.009580596024972344</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02804825253514354</v>
+        <v>0.02890715766144301</v>
       </c>
     </row>
     <row r="42">
@@ -3267,19 +3267,19 @@
         <v>533042</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>506239</v>
+        <v>506355</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>556736</v>
+        <v>556647</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7200485521225471</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6838429525748126</v>
+        <v>0.6839993566440402</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7520549145046255</v>
+        <v>0.7519345313019054</v>
       </c>
     </row>
     <row r="43">
@@ -3296,19 +3296,19 @@
         <v>37067</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>25977</v>
+        <v>25869</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>50396</v>
+        <v>50366</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05007150294065246</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03509044932874025</v>
+        <v>0.03494472429363395</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06807690631328243</v>
+        <v>0.06803584301053905</v>
       </c>
     </row>
     <row r="44">
@@ -3325,19 +3325,19 @@
         <v>140506</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>120807</v>
+        <v>119708</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>165218</v>
+        <v>166189</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1897995512616874</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1631893988702627</v>
+        <v>0.1617053403361652</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2231816002197077</v>
+        <v>0.2244929734049249</v>
       </c>
     </row>
     <row r="45">
@@ -3387,19 +3387,19 @@
         <v>43730</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>31715</v>
+        <v>32006</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>59248</v>
+        <v>58673</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01598277970235214</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01159151846133863</v>
+        <v>0.01169797829139526</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02165424025830731</v>
+        <v>0.02144409921262128</v>
       </c>
     </row>
     <row r="47">
@@ -3416,19 +3416,19 @@
         <v>25095</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>16442</v>
+        <v>16476</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>38299</v>
+        <v>37140</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.009172083398123696</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.006009185734279877</v>
+        <v>0.006021696776997858</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01399784233793142</v>
+        <v>0.01357422186979858</v>
       </c>
     </row>
     <row r="48">
@@ -3445,19 +3445,19 @@
         <v>42969</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>31104</v>
+        <v>30762</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>59621</v>
+        <v>58489</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01570459109306951</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01136826032638929</v>
+        <v>0.01124301849878795</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02179077539356694</v>
+        <v>0.02137708999390769</v>
       </c>
     </row>
     <row r="49">
@@ -3474,19 +3474,19 @@
         <v>1972630</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1926586</v>
+        <v>1923838</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>2020522</v>
+        <v>2022934</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.7209719691075417</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7041433952264629</v>
+        <v>0.703139027776563</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7384757434334323</v>
+        <v>0.7393572592132924</v>
       </c>
     </row>
     <row r="50">
@@ -3503,19 +3503,19 @@
         <v>161686</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>138958</v>
+        <v>136600</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>188078</v>
+        <v>190126</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05909411103108005</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.05078727290671921</v>
+        <v>0.04992542601852759</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06874012700816073</v>
+        <v>0.06948858866016518</v>
       </c>
     </row>
     <row r="51">
@@ -3532,19 +3532,19 @@
         <v>489960</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>450942</v>
+        <v>449192</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>529902</v>
+        <v>531963</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1790744656678329</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1648138491336391</v>
+        <v>0.1641740913354438</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1936726072343458</v>
+        <v>0.1944258468463093</v>
       </c>
     </row>
     <row r="52">
@@ -3714,19 +3714,19 @@
         <v>8643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4098</v>
+        <v>3878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15777</v>
+        <v>15519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02793149450135171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01324264132040846</v>
+        <v>0.01253182064192001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05098765494429588</v>
+        <v>0.05015342570829965</v>
       </c>
     </row>
     <row r="5">
@@ -3764,19 +3764,19 @@
         <v>4381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10563</v>
+        <v>9931</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01415775907992723</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003965361520407502</v>
+        <v>0.00393700367145702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03413796867233829</v>
+        <v>0.03209428501491637</v>
       </c>
     </row>
     <row r="7">
@@ -3793,19 +3793,19 @@
         <v>246411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231884</v>
+        <v>231003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260018</v>
+        <v>260677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7963463391756231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7493980959503704</v>
+        <v>0.7465512908864653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8403215416010739</v>
+        <v>0.8424508781502495</v>
       </c>
     </row>
     <row r="8">
@@ -3822,19 +3822,19 @@
         <v>16005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9607</v>
+        <v>8933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24943</v>
+        <v>25533</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05172458921306325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03104926524513343</v>
+        <v>0.02887036406696048</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08061075373940788</v>
+        <v>0.08251558958240808</v>
       </c>
     </row>
     <row r="9">
@@ -3851,19 +3851,19 @@
         <v>33987</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22925</v>
+        <v>24176</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46434</v>
+        <v>46926</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1098398180300347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07408694270314879</v>
+        <v>0.07813153926165403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1500641876318026</v>
+        <v>0.151654809392902</v>
       </c>
     </row>
     <row r="10">
@@ -3913,19 +3913,19 @@
         <v>6187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1833</v>
+        <v>2064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12734</v>
+        <v>12958</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01850011072147135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005480189122622772</v>
+        <v>0.006172479955489647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03807378230780951</v>
+        <v>0.03874558927664296</v>
       </c>
     </row>
     <row r="12">
@@ -3945,16 +3945,16 @@
         <v>941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7813</v>
+        <v>7848</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008685366759361735</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002812669211772394</v>
+        <v>0.00281372609505305</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02336070527123903</v>
+        <v>0.02346547481842359</v>
       </c>
     </row>
     <row r="13">
@@ -3971,19 +3971,19 @@
         <v>6609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2155</v>
+        <v>2843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13985</v>
+        <v>14536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01976106985683757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006442708128819391</v>
+        <v>0.008499268501459418</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04181605863491298</v>
+        <v>0.04346416807564246</v>
       </c>
     </row>
     <row r="14">
@@ -4000,19 +4000,19 @@
         <v>277632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263162</v>
+        <v>261338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291570</v>
+        <v>290669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8301301290285142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7868633329529136</v>
+        <v>0.7814110268416566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8718046061858516</v>
+        <v>0.8691123164943951</v>
       </c>
     </row>
     <row r="15">
@@ -4029,19 +4029,19 @@
         <v>13270</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7059</v>
+        <v>7326</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22574</v>
+        <v>22043</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03967843544978662</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02110799320373469</v>
+        <v>0.02190438511293053</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06749748679555029</v>
+        <v>0.06590800363251614</v>
       </c>
     </row>
     <row r="16">
@@ -4058,19 +4058,19 @@
         <v>27841</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17582</v>
+        <v>18120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38781</v>
+        <v>39150</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08324488818402853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05257217541740064</v>
+        <v>0.05417920175893198</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1159566101719921</v>
+        <v>0.1170587141601371</v>
       </c>
     </row>
     <row r="17">
@@ -4120,19 +4120,19 @@
         <v>3328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8489</v>
+        <v>8666</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02336611525955962</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007041304749882454</v>
+        <v>0.007111331639257386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05960265579683501</v>
+        <v>0.06085104140310271</v>
       </c>
     </row>
     <row r="19">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8574</v>
+        <v>8965</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01786893511809409</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06019996093621221</v>
+        <v>0.06294724726231077</v>
       </c>
     </row>
     <row r="21">
@@ -4199,19 +4199,19 @@
         <v>108218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97316</v>
+        <v>97306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117936</v>
+        <v>118352</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7598508381370059</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6833047866084846</v>
+        <v>0.68323316736418</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8280878748904171</v>
+        <v>0.8310086073018861</v>
       </c>
     </row>
     <row r="22">
@@ -4228,19 +4228,19 @@
         <v>3673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9014</v>
+        <v>8545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02578909217421505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006489971647046206</v>
+        <v>0.006716530655179524</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06329168621639218</v>
+        <v>0.06000074841185182</v>
       </c>
     </row>
     <row r="23">
@@ -4257,19 +4257,19 @@
         <v>24656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16953</v>
+        <v>15724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34839</v>
+        <v>34807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1731250193111253</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.119034786161453</v>
+        <v>0.110406604712715</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2446225442565714</v>
+        <v>0.2443986602717594</v>
       </c>
     </row>
     <row r="24">
@@ -4319,19 +4319,19 @@
         <v>16612</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9775</v>
+        <v>10183</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26224</v>
+        <v>26202</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02399935765841733</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01412160040002549</v>
+        <v>0.01471174004922822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03788456347352593</v>
+        <v>0.03785334527037849</v>
       </c>
     </row>
     <row r="26">
@@ -4348,19 +4348,19 @@
         <v>4900</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12264</v>
+        <v>11702</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007079219648115375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002777940277135366</v>
+        <v>0.002754739856465101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01771761615787129</v>
+        <v>0.01690503493491986</v>
       </c>
     </row>
     <row r="27">
@@ -4377,19 +4377,19 @@
         <v>15423</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8202</v>
+        <v>9138</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23937</v>
+        <v>25934</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02228123907975083</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01184982551203224</v>
+        <v>0.01320070619660598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03458062322221985</v>
+        <v>0.03746672527465861</v>
       </c>
     </row>
     <row r="28">
@@ -4406,19 +4406,19 @@
         <v>513120</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>489245</v>
+        <v>489160</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>535343</v>
+        <v>536753</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7412894154418297</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7067987439556475</v>
+        <v>0.7066754010914205</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7733942435566681</v>
+        <v>0.7754313813196353</v>
       </c>
     </row>
     <row r="29">
@@ -4435,19 +4435,19 @@
         <v>54080</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41092</v>
+        <v>41741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68445</v>
+        <v>69606</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07812795794642215</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05936464738497838</v>
+        <v>0.0603021628240971</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09887999239033268</v>
+        <v>0.1005579828304185</v>
       </c>
     </row>
     <row r="30">
@@ -4464,19 +4464,19 @@
         <v>88064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>70784</v>
+        <v>72620</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105425</v>
+        <v>109209</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1272228102254646</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1022591118947728</v>
+        <v>0.1049124515596628</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1523039983864682</v>
+        <v>0.1577709074127664</v>
       </c>
     </row>
     <row r="31">
@@ -4526,19 +4526,19 @@
         <v>13487</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7715</v>
+        <v>7569</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22164</v>
+        <v>23160</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02392241045660455</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01368336846072917</v>
+        <v>0.0134242658558524</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03931232123420628</v>
+        <v>0.04107781158517547</v>
       </c>
     </row>
     <row r="33">
@@ -4555,19 +4555,19 @@
         <v>6308</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2222</v>
+        <v>2110</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12904</v>
+        <v>12784</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0111888669497192</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003941299454589577</v>
+        <v>0.003741683065604849</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02288792830904926</v>
+        <v>0.02267491475978326</v>
       </c>
     </row>
     <row r="34">
@@ -4584,19 +4584,19 @@
         <v>19537</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12185</v>
+        <v>12153</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30314</v>
+        <v>30959</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03465204589055093</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0216128975900968</v>
+        <v>0.02155583755230131</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05376686919317382</v>
+        <v>0.05491143089471817</v>
       </c>
     </row>
     <row r="35">
@@ -4613,19 +4613,19 @@
         <v>386083</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>363137</v>
+        <v>363319</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>409604</v>
+        <v>406095</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6847921908003524</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6440929226831894</v>
+        <v>0.6444151356106618</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7265111820466378</v>
+        <v>0.7202872015413271</v>
       </c>
     </row>
     <row r="36">
@@ -4642,19 +4642,19 @@
         <v>33556</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23583</v>
+        <v>22804</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47434</v>
+        <v>46492</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05951787531631355</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04182972991415417</v>
+        <v>0.04044753813935391</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08413303813107575</v>
+        <v>0.08246274601211272</v>
       </c>
     </row>
     <row r="37">
@@ -4671,19 +4671,19 @@
         <v>104825</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>86862</v>
+        <v>87547</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>124208</v>
+        <v>124710</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1859266105864595</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1540663692068944</v>
+        <v>0.1552819629659168</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2203071735877602</v>
+        <v>0.2211969684332606</v>
       </c>
     </row>
     <row r="38">
@@ -4733,19 +4733,19 @@
         <v>22051</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13844</v>
+        <v>13632</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>33017</v>
+        <v>33787</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03032310315187707</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01903703181639572</v>
+        <v>0.01874500392302116</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04540198282708038</v>
+        <v>0.04646192604706053</v>
       </c>
     </row>
     <row r="40">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4831</v>
+        <v>5221</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001331658705638797</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006642581748081465</v>
+        <v>0.007180195881044149</v>
       </c>
     </row>
     <row r="41">
@@ -4791,19 +4791,19 @@
         <v>40282</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27236</v>
+        <v>28761</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>54406</v>
+        <v>54781</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05539266897645646</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03745223382012721</v>
+        <v>0.03955042128356753</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07481445104263572</v>
+        <v>0.07533045913870315</v>
       </c>
     </row>
     <row r="42">
@@ -4820,19 +4820,19 @@
         <v>540310</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>517017</v>
+        <v>515396</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>564004</v>
+        <v>562528</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7429929509105092</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7109617919886813</v>
+        <v>0.708731921718993</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7755740278566243</v>
+        <v>0.7735441866464877</v>
       </c>
     </row>
     <row r="43">
@@ -4849,19 +4849,19 @@
         <v>24552</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15777</v>
+        <v>16324</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>36133</v>
+        <v>36447</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03376227162318797</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02169592018273692</v>
+        <v>0.02244711133076823</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04968711249834704</v>
+        <v>0.05011891549052073</v>
       </c>
     </row>
     <row r="44">
@@ -4878,19 +4878,19 @@
         <v>99044</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>79903</v>
+        <v>80481</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>118322</v>
+        <v>119051</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1361973466323305</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1098759773680733</v>
+        <v>0.1106710317038727</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.162706998058329</v>
+        <v>0.1637093428684587</v>
       </c>
     </row>
     <row r="45">
@@ -4940,19 +4940,19 @@
         <v>70309</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>53614</v>
+        <v>54647</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>88042</v>
+        <v>87706</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02538684294997551</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01935883011281657</v>
+        <v>0.01973169417597503</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03179006605170365</v>
+        <v>0.03166861934342372</v>
       </c>
     </row>
     <row r="47">
@@ -4969,19 +4969,19 @@
         <v>15082</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9112</v>
+        <v>8988</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>24465</v>
+        <v>24127</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005445626499843324</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.003290060449022845</v>
+        <v>0.003245343282363055</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.008833914568200603</v>
+        <v>0.008711821488072039</v>
       </c>
     </row>
     <row r="48">
@@ -4998,19 +4998,19 @@
         <v>88776</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>70772</v>
+        <v>71936</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>109403</v>
+        <v>111707</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03205509763221954</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02555397205685488</v>
+        <v>0.02597432520555845</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0395027650958078</v>
+        <v>0.04033497027478118</v>
       </c>
     </row>
     <row r="49">
@@ -5027,19 +5027,19 @@
         <v>2071774</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>2027825</v>
+        <v>2021310</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>2119202</v>
+        <v>2118198</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.7480696251675039</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.73220057625515</v>
+        <v>0.7298482317709437</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.765194576403437</v>
+        <v>0.7648322830869894</v>
       </c>
     </row>
     <row r="50">
@@ -5056,19 +5056,19 @@
         <v>145136</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>121606</v>
+        <v>124803</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>168205</v>
+        <v>172938</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05240535243698963</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04390898865952765</v>
+        <v>0.04506337899457175</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06073484386173</v>
+        <v>0.06244372576260256</v>
       </c>
     </row>
     <row r="51">
@@ -5085,19 +5085,19 @@
         <v>378417</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>345398</v>
+        <v>342990</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>418630</v>
+        <v>417845</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1366374553134682</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1247152854251341</v>
+        <v>0.1238456683080924</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1511575123174101</v>
+        <v>0.1508740662802637</v>
       </c>
     </row>
     <row r="52">
@@ -5267,19 +5267,19 @@
         <v>9889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5768</v>
+        <v>5448</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16700</v>
+        <v>17404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03332842479215904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01944116538382256</v>
+        <v>0.01836217181102763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05628609995643714</v>
+        <v>0.05865721196149631</v>
       </c>
     </row>
     <row r="5">
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4988</v>
+        <v>4828</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00511557774090675</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01680992031798032</v>
+        <v>0.01627304284997661</v>
       </c>
     </row>
     <row r="6">
@@ -5325,19 +5325,19 @@
         <v>3173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7548</v>
+        <v>7018</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01069284470831874</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004116860717641696</v>
+        <v>0.004087119003961534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02544074925137151</v>
+        <v>0.02365272368652011</v>
       </c>
     </row>
     <row r="7">
@@ -5354,19 +5354,19 @@
         <v>238614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>224770</v>
+        <v>224499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>250732</v>
+        <v>250610</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8042083189218068</v>
+        <v>0.8042083189218069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7575479591811297</v>
+        <v>0.7566349295926452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8450483299461429</v>
+        <v>0.8446372453063911</v>
       </c>
     </row>
     <row r="8">
@@ -5383,19 +5383,19 @@
         <v>7074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3373</v>
+        <v>3574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12778</v>
+        <v>12557</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02384280728771317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01136923605878102</v>
+        <v>0.01204425698685429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04306662274276746</v>
+        <v>0.04232132867345036</v>
       </c>
     </row>
     <row r="9">
@@ -5412,19 +5412,19 @@
         <v>36439</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26076</v>
+        <v>27144</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49216</v>
+        <v>48735</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1228120265490954</v>
+        <v>0.1228120265490955</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08788459274447089</v>
+        <v>0.09148371327698272</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1658737487025136</v>
+        <v>0.1642526397451152</v>
       </c>
     </row>
     <row r="10">
@@ -5474,19 +5474,19 @@
         <v>13200</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7524</v>
+        <v>8119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21998</v>
+        <v>22374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05022077427401196</v>
+        <v>0.05022077427401197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02862557200916567</v>
+        <v>0.0308880981279527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08368976972662166</v>
+        <v>0.0851197382172036</v>
       </c>
     </row>
     <row r="12">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6136</v>
+        <v>5448</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00582514376297238</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02334435917518493</v>
+        <v>0.020728108992965</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>4542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2107</v>
+        <v>1865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9166</v>
+        <v>8830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01727960614733556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008015236220373744</v>
+        <v>0.007096126183924472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03487193018289858</v>
+        <v>0.03359206795334579</v>
       </c>
     </row>
     <row r="14">
@@ -5561,19 +5561,19 @@
         <v>202873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189338</v>
+        <v>190097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213197</v>
+        <v>214207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7718248487385633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7203315423333843</v>
+        <v>0.7232187371629322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8111037816561647</v>
+        <v>0.8149477580332238</v>
       </c>
     </row>
     <row r="15">
@@ -5590,19 +5590,19 @@
         <v>9456</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5311</v>
+        <v>5236</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15832</v>
+        <v>15875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03597544402311307</v>
+        <v>0.03597544402311308</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02020503909120478</v>
+        <v>0.01991880074705424</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06023332236320105</v>
+        <v>0.06039643164553087</v>
       </c>
     </row>
     <row r="16">
@@ -5619,19 +5619,19 @@
         <v>31246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22665</v>
+        <v>23261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42335</v>
+        <v>43500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1188741830540038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0862270177842694</v>
+        <v>0.08849433495060383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1610640372275962</v>
+        <v>0.1654934453623423</v>
       </c>
     </row>
     <row r="17">
@@ -5681,19 +5681,19 @@
         <v>4715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1915</v>
+        <v>2066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9267</v>
+        <v>9232</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04534143715524656</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0184186620746705</v>
+        <v>0.01986870742019754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08912123006258472</v>
+        <v>0.0887829853948837</v>
       </c>
     </row>
     <row r="19">
@@ -5731,19 +5731,19 @@
         <v>4351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1823</v>
+        <v>1837</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8166</v>
+        <v>8631</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04184245201232176</v>
+        <v>0.04184245201232175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01753421550311231</v>
+        <v>0.01766556785548776</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07853339178586441</v>
+        <v>0.08300486963489194</v>
       </c>
     </row>
     <row r="21">
@@ -5760,19 +5760,19 @@
         <v>69677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60646</v>
+        <v>61252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78448</v>
+        <v>77516</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6700878901600712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5832343423336172</v>
+        <v>0.5890602450108625</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7544387724010319</v>
+        <v>0.7454710522748639</v>
       </c>
     </row>
     <row r="22">
@@ -5789,19 +5789,19 @@
         <v>7611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3156</v>
+        <v>2982</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18569</v>
+        <v>17996</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07319267527868575</v>
+        <v>0.07319267527868577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03035339630458886</v>
+        <v>0.0286779988008874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1785789849729943</v>
+        <v>0.1730643336803913</v>
       </c>
     </row>
     <row r="23">
@@ -5818,19 +5818,19 @@
         <v>17629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11802</v>
+        <v>12050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24579</v>
+        <v>24345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1695355453936749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1135012005573544</v>
+        <v>0.1158899806156479</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2363791306757101</v>
+        <v>0.234123523126498</v>
       </c>
     </row>
     <row r="24">
@@ -5880,19 +5880,19 @@
         <v>36478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27170</v>
+        <v>27392</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48173</v>
+        <v>48564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07347624880346165</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05472713325990957</v>
+        <v>0.05517513979745571</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09703152122668725</v>
+        <v>0.09782082223562691</v>
       </c>
     </row>
     <row r="26">
@@ -5909,19 +5909,19 @@
         <v>5767</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1921</v>
+        <v>2457</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12930</v>
+        <v>12537</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01161567644642509</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00386935910196202</v>
+        <v>0.004950006038472092</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02604374756825576</v>
+        <v>0.02525169771063081</v>
       </c>
     </row>
     <row r="27">
@@ -5938,19 +5938,19 @@
         <v>7606</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3887</v>
+        <v>3962</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12479</v>
+        <v>12944</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01532014630293874</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007828646002007771</v>
+        <v>0.007980641100071016</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02513647339243863</v>
+        <v>0.02607333224288762</v>
       </c>
     </row>
     <row r="28">
@@ -5967,19 +5967,19 @@
         <v>359627</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>340455</v>
+        <v>341534</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>377698</v>
+        <v>378133</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.724377340066277</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6857619784274824</v>
+        <v>0.6879342704263329</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7607768131776448</v>
+        <v>0.7616531117273695</v>
       </c>
     </row>
     <row r="29">
@@ -5996,19 +5996,19 @@
         <v>19393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11770</v>
+        <v>12063</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29152</v>
+        <v>30575</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03906220379130389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02370816534534201</v>
+        <v>0.02429828918820523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05871991881038967</v>
+        <v>0.06158507003839475</v>
       </c>
     </row>
     <row r="30">
@@ -6025,19 +6025,19 @@
         <v>67593</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53663</v>
+        <v>54907</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83404</v>
+        <v>82577</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1361483845895937</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1080901658043463</v>
+        <v>0.1105969905287401</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1679972340761128</v>
+        <v>0.1663315984719006</v>
       </c>
     </row>
     <row r="31">
@@ -6087,19 +6087,19 @@
         <v>34999</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25800</v>
+        <v>25266</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45742</v>
+        <v>46349</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07400212183971301</v>
+        <v>0.07400212183971303</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05455088686127375</v>
+        <v>0.05342179845814563</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09671787607624834</v>
+        <v>0.09800015238962795</v>
       </c>
     </row>
     <row r="33">
@@ -6116,19 +6116,19 @@
         <v>3212</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1141</v>
+        <v>1117</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7208</v>
+        <v>7120</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006790614709672711</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002412265092102886</v>
+        <v>0.002362036833388054</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01524070621371523</v>
+        <v>0.01505481493349001</v>
       </c>
     </row>
     <row r="34">
@@ -6145,19 +6145,19 @@
         <v>25036</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18081</v>
+        <v>17659</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33069</v>
+        <v>32341</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05293663366913775</v>
+        <v>0.05293663366913776</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03823169015663667</v>
+        <v>0.03733767326536101</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06992091329272102</v>
+        <v>0.06838170989762116</v>
       </c>
     </row>
     <row r="35">
@@ -6174,19 +6174,19 @@
         <v>308896</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>289475</v>
+        <v>291561</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>325876</v>
+        <v>325391</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6531337740535743</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6120693552947769</v>
+        <v>0.6164809761603934</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6890374688453123</v>
+        <v>0.6880107283073753</v>
       </c>
     </row>
     <row r="36">
@@ -6203,19 +6203,19 @@
         <v>11414</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5874</v>
+        <v>6247</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19356</v>
+        <v>20300</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02413472698365051</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01242091522166785</v>
+        <v>0.01320783846641615</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04092557773207539</v>
+        <v>0.04292244574900298</v>
       </c>
     </row>
     <row r="37">
@@ -6232,19 +6232,19 @@
         <v>89387</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>76238</v>
+        <v>75619</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>105936</v>
+        <v>104797</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1890021287442517</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1611997819985496</v>
+        <v>0.1598896700662394</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2239934511015508</v>
+        <v>0.2215835162972519</v>
       </c>
     </row>
     <row r="38">
@@ -6294,19 +6294,19 @@
         <v>26587</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>18103</v>
+        <v>18343</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>39376</v>
+        <v>39353</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.06376392923470733</v>
+        <v>0.06376392923470735</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04341489070717942</v>
+        <v>0.04399209173648369</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09443509464991869</v>
+        <v>0.09437884175236599</v>
       </c>
     </row>
     <row r="40">
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4713</v>
+        <v>4802</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003154570810152802</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01130409757172212</v>
+        <v>0.01151727070352164</v>
       </c>
     </row>
     <row r="41">
@@ -6352,19 +6352,19 @@
         <v>27033</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20015</v>
+        <v>20687</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>34702</v>
+        <v>36472</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.06483328290568798</v>
+        <v>0.064833282905688</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04800042229960814</v>
+        <v>0.04961249983467438</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08322548176555777</v>
+        <v>0.08747068688626977</v>
       </c>
     </row>
     <row r="42">
@@ -6381,19 +6381,19 @@
         <v>272906</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>256176</v>
+        <v>256695</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>289808</v>
+        <v>290063</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6545023561626336</v>
+        <v>0.6545023561626337</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.614379818379468</v>
+        <v>0.6156232381416005</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6950373915580343</v>
+        <v>0.6956488420056154</v>
       </c>
     </row>
     <row r="43">
@@ -6410,19 +6410,19 @@
         <v>7921</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4125</v>
+        <v>4252</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>13429</v>
+        <v>13823</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01899746767495122</v>
+        <v>0.01899746767495123</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009894029811439818</v>
+        <v>0.01019639970302241</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03220559335364454</v>
+        <v>0.03315137242366255</v>
       </c>
     </row>
     <row r="44">
@@ -6439,19 +6439,19 @@
         <v>81204</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>67429</v>
+        <v>66647</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>95046</v>
+        <v>94346</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.194748393211867</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1617133109528484</v>
+        <v>0.1598383378274149</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2279459936406865</v>
+        <v>0.2262661392329666</v>
       </c>
     </row>
     <row r="45">
@@ -6501,19 +6501,19 @@
         <v>125869</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>107637</v>
+        <v>107790</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>148285</v>
+        <v>148084</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.06140191103175992</v>
+        <v>0.06140191103175991</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05250825324965368</v>
+        <v>0.05258267355106376</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07233703265622929</v>
+        <v>0.07223938973693295</v>
       </c>
     </row>
     <row r="47">
@@ -6530,19 +6530,19 @@
         <v>13343</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7984</v>
+        <v>8062</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20639</v>
+        <v>21357</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.006508889651454533</v>
+        <v>0.006508889651454532</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.003894630161709009</v>
+        <v>0.003932994513583322</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01006822915291558</v>
+        <v>0.010418283351336</v>
       </c>
     </row>
     <row r="48">
@@ -6559,19 +6559,19 @@
         <v>71741</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>60459</v>
+        <v>60377</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>84342</v>
+        <v>86295</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.03499697341428972</v>
+        <v>0.03499697341428971</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02949353823404717</v>
+        <v>0.02945341869822287</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04114437902406076</v>
+        <v>0.04209685360100753</v>
       </c>
     </row>
     <row r="49">
@@ -6588,19 +6588,19 @@
         <v>1452593</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1416305</v>
+        <v>1415962</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1488944</v>
+        <v>1489311</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.7086122843050465</v>
+        <v>0.7086122843050463</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.690910229272367</v>
+        <v>0.690742852852766</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7263451201402492</v>
+        <v>0.7265245512124399</v>
       </c>
     </row>
     <row r="50">
@@ -6617,19 +6617,19 @@
         <v>62870</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>48401</v>
+        <v>49090</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>79195</v>
+        <v>79533</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.0306695011955414</v>
+        <v>0.03066950119554139</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02361144369818786</v>
+        <v>0.02394733544870207</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03863334501334959</v>
+        <v>0.03879808583903632</v>
       </c>
     </row>
     <row r="51">
@@ -6646,19 +6646,19 @@
         <v>323498</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>294332</v>
+        <v>293074</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>352628</v>
+        <v>353701</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1578104404019081</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1435827602056113</v>
+        <v>0.1429689987743789</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1720212246080321</v>
+        <v>0.1725443898978352</v>
       </c>
     </row>
     <row r="52">
